--- a/siyabongaCalcu.xlsx
+++ b/siyabongaCalcu.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Trainee Roster" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -19,16 +19,164 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+  <si>
+    <t xml:space="preserve">Trainee ID </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> First Name </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Last Name </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Email </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> phone </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date of Birth </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SE001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sandile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Halala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sandile@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SE002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menzi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nxumalo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menzi@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SE003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sabelo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zikhali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sabelo@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SE004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gumbi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zama@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SE005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bongiwe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zakwe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bongiwe@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SE006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sintu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sintu@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SE007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mike</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mike@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SE008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brenda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brenda@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SE009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yvonne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vuma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yvonne@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SE010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mpume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yanga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mpume@gmail.com</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -44,6 +192,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -88,8 +241,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -216,14 +385,282 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.05"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>2115633452</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>37756</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <f aca="true">DATEDIF(F2, TODAY(), "Y")</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>2115633453</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>35604</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <f aca="true">DATEDIF(F3, TODAY(), "Y")</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>2115633454</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>38454</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <f aca="true">DATEDIF(F4, TODAY(), "Y")</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>2115633455</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>36870</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <f aca="true">DATEDIF(F5, TODAY(), "Y")</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>2115633456</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>38182</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <f aca="true">DATEDIF(F6, TODAY(), "Y")</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>2115633457</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>28711</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <f aca="true">DATEDIF(F7, TODAY(), "Y")</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>2115633458</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>21896</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <f aca="true">DATEDIF(F8, TODAY(), "Y")</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>2115633459</v>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>44089</v>
+      </c>
+      <c r="G9" s="4" t="n">
+        <f aca="true">DATEDIF(F9, TODAY(), "Y")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>2115633460</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>45285</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <f aca="true">DATEDIF(F10, TODAY(), "Y")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>2115633461</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>43783</v>
+      </c>
+      <c r="G11" s="4" t="n">
+        <f aca="true">DATEDIF(F11, TODAY(), "Y")</f>
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
